--- a/src/models/outer_join.xlsx
+++ b/src/models/outer_join.xlsx
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9">
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12">
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13">
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14">
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15">
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17">
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18">
@@ -605,7 +605,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19">
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20">
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21">
@@ -635,7 +635,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22">
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23">
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24">
@@ -665,7 +665,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25">
@@ -675,7 +675,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26">
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27">
@@ -695,7 +695,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28">
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29">
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30">
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32">
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34">
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35">
@@ -775,7 +775,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36">
@@ -785,7 +785,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37">
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38">
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="39">
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="40">
@@ -825,7 +825,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="41">
@@ -835,7 +835,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42">
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="43">
@@ -855,7 +855,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44">
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="45">
@@ -875,7 +875,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="46">
@@ -885,7 +885,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="47">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="48">
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="49">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="50">
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="51">
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="52">
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="53">
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="54">
@@ -965,7 +965,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="55">
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="56">
@@ -985,7 +985,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="57">
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="58">
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="59">
@@ -1015,7 +1015,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="60">
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="62">
@@ -1045,7 +1045,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="63">
@@ -1055,7 +1055,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="64">
@@ -1065,7 +1065,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="65">
@@ -1075,7 +1075,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="66">
@@ -1085,7 +1085,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="67">
@@ -1095,7 +1095,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="68">
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="69">
@@ -1115,7 +1115,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="70">
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="71">
@@ -1135,7 +1135,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="72">
@@ -1145,7 +1145,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="73">
@@ -1155,7 +1155,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="74">
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="75">
@@ -1175,7 +1175,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="76">
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="77">
@@ -1195,7 +1195,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="78">
@@ -1205,7 +1205,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="79">
@@ -1215,7 +1215,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="80">
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="81">
@@ -1235,7 +1235,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="82">
@@ -1245,7 +1245,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="83">
@@ -1255,7 +1255,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="84">
@@ -1265,7 +1265,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="85">
@@ -1275,7 +1275,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>17713</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86">
@@ -1285,7 +1285,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>17712</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87">
@@ -1295,7 +1295,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>17713</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88">
@@ -1305,7 +1305,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>17713</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89">
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>17713</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90">
@@ -1325,7 +1325,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>17712</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91">
@@ -1335,7 +1335,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>17713</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92">
@@ -1345,7 +1345,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>17713</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93">
@@ -1355,7 +1355,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>17713</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94">
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>17712</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95">
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>17713</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96">
@@ -1385,7 +1385,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>17718</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97">
@@ -1395,7 +1395,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>17713</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98">
@@ -1405,7 +1405,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>17712</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99">
@@ -1415,7 +1415,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>17713</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100">
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>17713</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101">
@@ -1435,7 +1435,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>17712</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102">
@@ -1445,7 +1445,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>17713</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103">
@@ -1455,7 +1455,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>17712</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104">
@@ -1465,7 +1465,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>17712</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105">
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>17712</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106">
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>17712</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107">
@@ -1495,7 +1495,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>17712</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108">
@@ -1505,7 +1505,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>17712</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109">
@@ -1515,7 +1515,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>17712</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>17712</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111">
@@ -1535,7 +1535,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>17712</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112">
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>17712</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113">
@@ -1555,7 +1555,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>17712</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114">
@@ -1565,7 +1565,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>17712</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115">
@@ -1575,7 +1575,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>17712</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116">
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>17712</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117">
@@ -1595,7 +1595,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>17712</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118">
@@ -1605,7 +1605,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>17712</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119">
@@ -1615,7 +1615,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>17712</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120">
@@ -1625,7 +1625,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>17712</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121">
@@ -1635,7 +1635,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>17712</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122">
@@ -1645,7 +1645,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>17712</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123">
@@ -1655,7 +1655,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>17712</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124">
@@ -1665,7 +1665,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>17712</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
